--- a/build2.7_260113/results/2.7b_idc4_npe0_results.xlsx
+++ b/build2.7_260113/results/2.7b_idc4_npe0_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0a89b0b6314c61c/MAFF_2025/workspace simul/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{307CF41A-25BF-49B8-9612-BB14924D7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0767D50D-65C3-4D94-8A7A-4C7B9045C8C6}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="8_{307CF41A-25BF-49B8-9612-BB14924D7493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAC25373-5D71-4B3D-9489-03BA75B9012D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="6" xr2:uid="{D95E0345-15AD-425B-9CC6-432214C71187}"/>
   </bookViews>
@@ -754,13 +754,13 @@
         <v>86.7</v>
       </c>
       <c r="D4">
-        <v>54.927821543017878</v>
+        <v>44.917487407317317</v>
       </c>
       <c r="E4">
         <v>299.2</v>
       </c>
       <c r="F4">
-        <v>189.50098432341167</v>
+        <v>154.96533155524475</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -830,7 +830,7 @@
         <v>10.5</v>
       </c>
       <c r="D9">
-        <v>260.42836273705291</v>
+        <v>260.42836273705285</v>
       </c>
       <c r="E9">
         <v>13.3</v>
@@ -850,13 +850,13 @@
         <v>10.5</v>
       </c>
       <c r="D10">
-        <v>333.30994445207801</v>
+        <v>333.30994445207813</v>
       </c>
       <c r="E10">
         <v>13.3</v>
       </c>
       <c r="F10">
-        <v>419.97053000961824</v>
+        <v>419.97053000961841</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -876,7 +876,7 @@
         <v>27.9</v>
       </c>
       <c r="F11">
-        <v>206.23652275246167</v>
+        <v>206.2365227524617</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -972,13 +972,13 @@
         <v>169.7</v>
       </c>
       <c r="D17">
-        <v>249.42333056618509</v>
+        <v>253.65610740377764</v>
       </c>
       <c r="E17">
         <v>46.3</v>
       </c>
       <c r="F17">
-        <v>68.092569244568537</v>
+        <v>69.248117321231305</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1052,13 +1052,13 @@
         <v>806.59999999999991</v>
       </c>
       <c r="D21">
-        <v>1525.366157752863</v>
+        <v>1519.5886004547554</v>
       </c>
       <c r="E21">
         <v>1471.1000000000004</v>
       </c>
       <c r="F21">
-        <v>1763.5547414299792</v>
+        <v>1730.1746367384753</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1078,7 +1078,7 @@
         <v>476.5</v>
       </c>
       <c r="F22">
-        <v>727.34693092563737</v>
+        <v>727.34693092563748</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1112,13 +1112,13 @@
         <v>86.7</v>
       </c>
       <c r="D24">
-        <v>54.927821543017878</v>
+        <v>44.917487407317317</v>
       </c>
       <c r="E24">
         <v>299.2</v>
       </c>
       <c r="F24">
-        <v>189.50098432341167</v>
+        <v>154.96533155524475</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1306,13 +1306,13 @@
         <v>169.7</v>
       </c>
       <c r="D37">
-        <v>163.43670233232382</v>
+        <v>243.80060568910176</v>
       </c>
       <c r="E37">
         <v>46.3</v>
       </c>
       <c r="F37">
-        <v>44.618219736724406</v>
+        <v>66.557565353124801</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1386,13 +1386,13 @@
         <v>806.59999999999991</v>
       </c>
       <c r="D41">
-        <v>576.44861861074116</v>
+        <v>646.80218783181851</v>
       </c>
       <c r="E41">
         <v>1471.1000000000004</v>
       </c>
       <c r="F41">
-        <v>1389.7494913212993</v>
+        <v>1377.153184169533</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1434,7 @@
         <v>42.9</v>
       </c>
       <c r="D2">
-        <v>26.676798675236917</v>
+        <v>26.676798675236924</v>
       </c>
       <c r="E2">
         <v>154.5</v>
@@ -1480,7 +1480,7 @@
         <v>115.7</v>
       </c>
       <c r="F4">
-        <v>0.75957929752646203</v>
+        <v>0.75957929752646214</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1536,7 +1536,7 @@
         <v>138.9</v>
       </c>
       <c r="D8">
-        <v>42.099727908896931</v>
+        <v>42.099727908896938</v>
       </c>
       <c r="E8">
         <v>495.59999999999997</v>
@@ -1712,13 +1712,13 @@
         <v>17</v>
       </c>
       <c r="D2">
-        <v>2.8090631017752932</v>
+        <v>2.7115305200710491</v>
       </c>
       <c r="E2">
         <v>43.8</v>
       </c>
       <c r="F2">
-        <v>5.7911644906199431</v>
+        <v>5.590091320178475</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1746,13 +1746,13 @@
         <v>39.9</v>
       </c>
       <c r="D4">
-        <v>0.34915872015317428</v>
+        <v>0.32014889365234012</v>
       </c>
       <c r="E4">
         <v>58.3</v>
       </c>
       <c r="F4">
-        <v>0.40865536606727515</v>
+        <v>0.37470226513069893</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1766,13 +1766,13 @@
         <v>46.4</v>
       </c>
       <c r="D5">
-        <v>10.013344236119643</v>
+        <v>9.1813862691081827</v>
       </c>
       <c r="E5">
         <v>65.900000000000006</v>
       </c>
       <c r="F5">
-        <v>11.375159052231915</v>
+        <v>10.430054801706897</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1786,13 +1786,13 @@
         <v>257.3</v>
       </c>
       <c r="D6">
-        <v>113.38959128943858</v>
+        <v>109.4526275488025</v>
       </c>
       <c r="E6">
         <v>162.1</v>
       </c>
       <c r="F6">
-        <v>57.148354009877039</v>
+        <v>55.164124284596461</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1806,13 +1806,13 @@
         <v>396.4</v>
       </c>
       <c r="D7">
-        <v>126.5611573474867</v>
+        <v>121.66569323163407</v>
       </c>
       <c r="E7">
         <v>407</v>
       </c>
       <c r="F7">
-        <v>74.723332918796174</v>
+        <v>71.558972671612537</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1826,13 +1826,13 @@
         <v>17</v>
       </c>
       <c r="D8">
-        <v>4.0431812990336811</v>
+        <v>3.9456487173294379</v>
       </c>
       <c r="E8">
         <v>43.8</v>
       </c>
       <c r="F8">
-        <v>8.3354225660878356</v>
+        <v>8.1343493956463693</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1860,13 +1860,13 @@
         <v>39.9</v>
       </c>
       <c r="D10">
-        <v>0.6325715406440614</v>
+        <v>0.60356171414322723</v>
       </c>
       <c r="E10">
         <v>58.3</v>
       </c>
       <c r="F10">
-        <v>0.74036173116980952</v>
+        <v>0.7064086302332333</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1880,13 +1880,13 @@
         <v>46.4</v>
       </c>
       <c r="D11">
-        <v>18.141195464523332</v>
+        <v>17.309237497511869</v>
       </c>
       <c r="E11">
         <v>65.900000000000006</v>
       </c>
       <c r="F11">
-        <v>20.6083980476985</v>
+        <v>19.66329379717348</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1900,13 +1900,13 @@
         <v>257.3</v>
       </c>
       <c r="D12">
-        <v>163.20554519291247</v>
+        <v>159.26858145227641</v>
       </c>
       <c r="E12">
         <v>162.1</v>
       </c>
       <c r="F12">
-        <v>82.25559477722787</v>
+        <v>80.271365051947299</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1920,13 +1920,13 @@
         <v>396.4</v>
       </c>
       <c r="D13">
-        <v>186.02249349711354</v>
+        <v>181.12702938126094</v>
       </c>
       <c r="E13">
         <v>407</v>
       </c>
       <c r="F13">
-        <v>111.93977712218401</v>
+        <v>108.77541687500039</v>
       </c>
     </row>
   </sheetData>
@@ -1974,13 +1974,13 @@
         <v>2461.5000000000009</v>
       </c>
       <c r="E2">
-        <v>2103.9776185416576</v>
+        <v>2067.4331536029704</v>
       </c>
       <c r="F2">
-        <v>-53.807895664025182</v>
+        <v>-90.352360602712452</v>
       </c>
       <c r="G2">
-        <v>97.506337154004257</v>
+        <v>95.812727446361947</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1997,13 +1997,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E3">
-        <v>53.422180598533778</v>
+        <v>52.226487526538698</v>
       </c>
       <c r="F3">
-        <v>-16.70601027781678</v>
+        <v>-17.901703349811861</v>
       </c>
       <c r="G3">
-        <v>76.177896407918638</v>
+        <v>74.47288583078381</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2020,13 +2020,13 @@
         <v>60.9</v>
       </c>
       <c r="E4">
-        <v>14.8972346647218</v>
+        <v>14.521734631724758</v>
       </c>
       <c r="F4">
-        <v>-49.836330761448671</v>
+        <v>-50.211830794445717</v>
       </c>
       <c r="G4">
-        <v>23.013153325707513</v>
+        <v>22.433083263870266</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2043,13 +2043,13 @@
         <v>299.09999999999991</v>
       </c>
       <c r="E5">
-        <v>401.26573990289836</v>
+        <v>394.16240987718692</v>
       </c>
       <c r="F5">
-        <v>77.597912772046016</v>
+        <v>70.494582746334572</v>
       </c>
       <c r="G5">
-        <v>123.97455238597895</v>
+        <v>121.7799165802893</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2066,13 +2066,13 @@
         <v>2461.5000000000009</v>
       </c>
       <c r="E6">
-        <v>1711.4997068863233</v>
+        <v>1695.7390394873735</v>
       </c>
       <c r="F6">
-        <v>-446.28580731935949</v>
+        <v>-462.04647471830936</v>
       </c>
       <c r="G6">
-        <v>79.317415731023445</v>
+        <v>78.587006369426092</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2089,13 +2089,13 @@
         <v>92.90000000000002</v>
       </c>
       <c r="E7">
-        <v>67.109048353624019</v>
+        <v>66.903059926378347</v>
       </c>
       <c r="F7">
-        <v>-3.0191425227265398</v>
+        <v>-3.2251309499722112</v>
       </c>
       <c r="G7">
-        <v>95.694823315704994</v>
+        <v>95.401092043485434</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2112,13 +2112,13 @@
         <v>60.9</v>
       </c>
       <c r="E8">
-        <v>27.084324529877833</v>
+        <v>26.86108674991916</v>
       </c>
       <c r="F8">
-        <v>-37.649240896292639</v>
+        <v>-37.872478676251312</v>
       </c>
       <c r="G8">
-        <v>41.839692208469309</v>
+        <v>41.494835906350005</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -2135,13 +2135,13 @@
         <v>299.09999999999991</v>
       </c>
       <c r="E9">
-        <v>281.73148243338971</v>
+        <v>278.49180707852696</v>
       </c>
       <c r="F9">
-        <v>-41.93634469746263</v>
+        <v>-45.176020052325384</v>
       </c>
       <c r="G9">
-        <v>87.043400306664211</v>
+        <v>86.042474331543104</v>
       </c>
     </row>
   </sheetData>
@@ -2183,13 +2183,13 @@
         <v>42.9</v>
       </c>
       <c r="D2">
-        <v>26.676798675236917</v>
+        <v>26.676798675236924</v>
       </c>
       <c r="E2">
-        <v>62.183679895657157</v>
+        <v>62.183679895657164</v>
       </c>
       <c r="F2">
-        <v>-16.223201324763082</v>
+        <v>-16.223201324763075</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2223,13 +2223,13 @@
         <v>316.00000000000006</v>
       </c>
       <c r="D4">
-        <v>191.23798241035482</v>
+        <v>181.22764827465426</v>
       </c>
       <c r="E4">
-        <v>60.518348864036327</v>
+        <v>57.350521605903239</v>
       </c>
       <c r="F4">
-        <v>-124.76201758964524</v>
+        <v>-134.7723517253458</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2243,13 +2243,13 @@
         <v>115.4</v>
       </c>
       <c r="D5">
-        <v>1051.3504188943114</v>
+        <v>1051.3504188943116</v>
       </c>
       <c r="E5">
-        <v>911.04888985642219</v>
+        <v>911.04888985642242</v>
       </c>
       <c r="F5">
-        <v>935.95041889431138</v>
+        <v>935.95041889431161</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2283,13 +2283,13 @@
         <v>241.39999999999998</v>
       </c>
       <c r="D7">
-        <v>249.42333056618509</v>
+        <v>253.65610740377764</v>
       </c>
       <c r="E7">
-        <v>103.32366634887536</v>
+        <v>105.07709503056242</v>
       </c>
       <c r="F7">
-        <v>8.0233305661851091</v>
+        <v>12.256107403777662</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2377,13 +2377,13 @@
         <v>316.00000000000006</v>
       </c>
       <c r="D12">
-        <v>341.02380528000322</v>
+        <v>331.01347114430263</v>
       </c>
       <c r="E12">
-        <v>107.91892572151998</v>
+        <v>104.75109846338688</v>
       </c>
       <c r="F12">
-        <v>25.02380528000316</v>
+        <v>15.013471144302571</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2431,13 +2431,13 @@
         <v>241.39999999999998</v>
       </c>
       <c r="D15">
-        <v>163.43670233232382</v>
+        <v>243.80060568910176</v>
       </c>
       <c r="E15">
-        <v>67.703687793009053</v>
+        <v>100.99445140393611</v>
       </c>
       <c r="F15">
-        <v>-77.963297667676159</v>
+        <v>2.4006056891017806</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2505,13 +2505,13 @@
         <v>92.699999999999989</v>
       </c>
       <c r="D20">
-        <v>3.1582218219284677</v>
+        <v>3.0316794137233893</v>
       </c>
       <c r="E20">
-        <v>3.4069275317459202</v>
+        <v>3.270420079529007</v>
       </c>
       <c r="F20">
-        <v>-89.541778178071525</v>
+        <v>-89.668320586276593</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2525,13 +2525,13 @@
         <v>303.7</v>
       </c>
       <c r="D21">
-        <v>123.40293552555823</v>
+        <v>118.63401381791068</v>
       </c>
       <c r="E21">
-        <v>40.633169419018188</v>
+        <v>39.062895560721337</v>
       </c>
       <c r="F21">
-        <v>-180.29706447444175</v>
+        <v>-185.06598618208932</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2545,13 +2545,13 @@
         <v>92.699999999999989</v>
       </c>
       <c r="D22">
-        <v>4.6757528396777426</v>
+        <v>4.5492104314726651</v>
       </c>
       <c r="E22">
-        <v>5.0439620708497772</v>
+        <v>4.9074546186328645</v>
       </c>
       <c r="F22">
-        <v>-88.024247160322247</v>
+        <v>-88.15078956852733</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2565,13 +2565,13 @@
         <v>303.7</v>
       </c>
       <c r="D23">
-        <v>181.34674065743579</v>
+        <v>176.57781894978828</v>
       </c>
       <c r="E23">
-        <v>59.712459880617651</v>
+        <v>58.1421860223208</v>
       </c>
       <c r="F23">
-        <v>-122.3532593425642</v>
+        <v>-127.12218105021171</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7347A135-E119-4FD7-A6E2-6540BB805540}">
   <dimension ref="A1:AB40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B14" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -2675,11 +2675,8 @@
       <c r="C2">
         <v>70.2</v>
       </c>
-      <c r="E2">
-        <v>151.30000000000001</v>
-      </c>
       <c r="N2">
-        <v>362.59999999999997</v>
+        <v>362.6</v>
       </c>
       <c r="O2">
         <v>151.30000000000001</v>
@@ -2691,7 +2688,7 @@
         <v>55.4</v>
       </c>
       <c r="AA2">
-        <v>793.89999999999986</v>
+        <v>642.6</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -2705,7 +2702,7 @@
         <v>586.79999999999995</v>
       </c>
       <c r="N3">
-        <v>182.5</v>
+        <v>182.50000000000003</v>
       </c>
       <c r="W3">
         <v>44.5</v>
@@ -2728,10 +2725,10 @@
         <v>678.5</v>
       </c>
       <c r="L4">
-        <v>576.60000000000014</v>
+        <v>576.6</v>
       </c>
       <c r="M4">
-        <v>678.49999999999989</v>
+        <v>678.50000000000011</v>
       </c>
       <c r="U4">
         <v>36.200000000000003</v>
@@ -2760,13 +2757,13 @@
         <v>0.4</v>
       </c>
       <c r="R5">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="W5">
         <v>1.9</v>
       </c>
       <c r="X5">
-        <v>23.199999999999996</v>
+        <v>23.200000000000003</v>
       </c>
       <c r="AA5">
         <v>36.5</v>
@@ -2783,25 +2780,25 @@
         <v>1505.1000000000001</v>
       </c>
       <c r="E6">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="L6">
-        <v>576.60000000000014</v>
+        <v>576.6</v>
       </c>
       <c r="M6">
-        <v>678.49999999999989</v>
+        <v>678.50000000000011</v>
       </c>
       <c r="N6">
-        <v>545.09999999999991</v>
+        <v>545.1</v>
       </c>
       <c r="O6">
         <v>151.30000000000001</v>
       </c>
       <c r="R6">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="T6">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
       <c r="U6">
         <v>36.200000000000003</v>
@@ -2813,7 +2810,7 @@
         <v>94.748000000000005</v>
       </c>
       <c r="X6">
-        <v>23.199999999999996</v>
+        <v>23.200000000000003</v>
       </c>
       <c r="Y6">
         <v>55.4</v>
@@ -2832,9 +2829,6 @@
       <c r="D7">
         <v>418.00000000000006</v>
       </c>
-      <c r="E7">
-        <v>151.30000000000001</v>
-      </c>
       <c r="P7">
         <v>362.6</v>
       </c>
@@ -2845,7 +2839,7 @@
         <v>55.4</v>
       </c>
       <c r="AA7">
-        <v>1211.9000000000001</v>
+        <v>1060.6000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -2943,13 +2937,13 @@
         <v>1187.4000000000001</v>
       </c>
       <c r="E11">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="P11">
         <v>1121.7</v>
       </c>
       <c r="T11">
-        <v>307.70000000000005</v>
+        <v>459</v>
       </c>
       <c r="U11">
         <v>36.200000000000003</v>
@@ -3215,10 +3209,10 @@
         <v>70</v>
       </c>
       <c r="F17">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I17">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="X17">
         <v>36.200000000000003</v>
@@ -3233,7 +3227,7 @@
         <v>166.048</v>
       </c>
       <c r="AB17">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3244,10 +3238,10 @@
         <v>71</v>
       </c>
       <c r="F18">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I18">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="X18">
         <v>36.200000000000003</v>
@@ -3262,7 +3256,7 @@
         <v>166.048</v>
       </c>
       <c r="AB18">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3273,10 +3267,10 @@
         <v>72</v>
       </c>
       <c r="F19">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I19">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="X19">
         <v>36.200000000000003</v>
@@ -3291,7 +3285,7 @@
         <v>166.048</v>
       </c>
       <c r="AB19">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3302,10 +3296,10 @@
         <v>73</v>
       </c>
       <c r="F20">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I20">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="X20">
         <v>36.200000000000003</v>
@@ -3320,7 +3314,7 @@
         <v>166.048</v>
       </c>
       <c r="AB20">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3340,34 +3334,34 @@
         <v>285.7</v>
       </c>
       <c r="G21">
-        <v>339.24999999999994</v>
+        <v>339.25000000000006</v>
       </c>
       <c r="H21">
         <v>75.650000000000006</v>
       </c>
       <c r="I21">
-        <v>700.59999999999991</v>
+        <v>700.6</v>
       </c>
       <c r="K21">
         <v>178.10000000000002</v>
       </c>
       <c r="L21">
-        <v>148.84999999999997</v>
+        <v>148.85000000000002</v>
       </c>
       <c r="P21">
         <v>55.4</v>
       </c>
       <c r="Q21">
-        <v>382.34999999999997</v>
+        <v>382.35</v>
       </c>
       <c r="S21">
-        <v>110.20000000000002</v>
+        <v>110.2</v>
       </c>
       <c r="T21">
         <v>123.7</v>
       </c>
       <c r="W21">
-        <v>233.90000000000003</v>
+        <v>233.9</v>
       </c>
       <c r="X21">
         <v>36.200000000000003</v>
@@ -3382,7 +3376,7 @@
         <v>166.048</v>
       </c>
       <c r="AB21">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3402,34 +3396,34 @@
         <v>285.7</v>
       </c>
       <c r="G22">
-        <v>678.49999999999989</v>
+        <v>678.50000000000011</v>
       </c>
       <c r="H22">
         <v>151.30000000000001</v>
       </c>
       <c r="I22">
-        <v>1115.4999999999998</v>
+        <v>1115.5</v>
       </c>
       <c r="K22">
         <v>356.20000000000005</v>
       </c>
       <c r="L22">
-        <v>297.69999999999993</v>
+        <v>297.70000000000005</v>
       </c>
       <c r="P22">
         <v>55.4</v>
       </c>
       <c r="Q22">
-        <v>709.3</v>
+        <v>709.30000000000007</v>
       </c>
       <c r="S22">
-        <v>220.40000000000003</v>
+        <v>220.4</v>
       </c>
       <c r="T22">
         <v>247.4</v>
       </c>
       <c r="W22">
-        <v>467.80000000000007</v>
+        <v>467.8</v>
       </c>
       <c r="X22">
         <v>36.200000000000003</v>
@@ -3444,7 +3438,7 @@
         <v>166.048</v>
       </c>
       <c r="AB22">
-        <v>22.400000000000112</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3464,37 +3458,37 @@
         <v>285.7</v>
       </c>
       <c r="G23">
-        <v>678.49999999999989</v>
+        <v>678.50000000000011</v>
       </c>
       <c r="H23">
         <v>151.30000000000001</v>
       </c>
       <c r="I23">
-        <v>1115.4999999999998</v>
+        <v>1115.5</v>
       </c>
       <c r="K23">
         <v>356.20000000000005</v>
       </c>
       <c r="L23">
-        <v>297.69999999999993</v>
+        <v>297.70000000000005</v>
       </c>
       <c r="N23">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="P23">
         <v>55.4</v>
       </c>
       <c r="Q23">
-        <v>719.59999999999991</v>
+        <v>719.6</v>
       </c>
       <c r="S23">
-        <v>220.40000000000003</v>
+        <v>220.4</v>
       </c>
       <c r="T23">
         <v>247.4</v>
       </c>
       <c r="W23">
-        <v>467.80000000000007</v>
+        <v>467.8</v>
       </c>
       <c r="X23">
         <v>36.200000000000003</v>
@@ -3509,7 +3503,7 @@
         <v>166.048</v>
       </c>
       <c r="AB23">
-        <v>22.400000000000112</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3529,34 +3523,34 @@
         <v>285.7</v>
       </c>
       <c r="G24">
-        <v>678.49999999999989</v>
+        <v>678.50000000000011</v>
       </c>
       <c r="H24">
         <v>151.30000000000001</v>
       </c>
       <c r="I24">
-        <v>1115.4999999999998</v>
+        <v>1115.5</v>
       </c>
       <c r="K24">
         <v>356.20000000000005</v>
       </c>
       <c r="L24">
-        <v>297.69999999999993</v>
+        <v>297.70000000000005</v>
       </c>
       <c r="N24">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="O24">
-        <v>0.79999999999999716</v>
+        <v>0.80000000000000249</v>
       </c>
       <c r="P24">
         <v>55.4</v>
       </c>
       <c r="Q24">
-        <v>720.39999999999986</v>
+        <v>720.4</v>
       </c>
       <c r="S24">
-        <v>220.40000000000003</v>
+        <v>220.4</v>
       </c>
       <c r="T24">
         <v>247.4</v>
@@ -3565,7 +3559,7 @@
         <v>22.4</v>
       </c>
       <c r="W24">
-        <v>490.20000000000005</v>
+        <v>490.2</v>
       </c>
       <c r="X24">
         <v>36.200000000000003</v>
@@ -3579,9 +3573,6 @@
       <c r="AA24">
         <v>166.048</v>
       </c>
-      <c r="AB24">
-        <v>1.1368683772161603E-13</v>
-      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
@@ -3600,34 +3591,34 @@
         <v>285.7</v>
       </c>
       <c r="G25">
-        <v>678.49999999999989</v>
+        <v>678.50000000000011</v>
       </c>
       <c r="H25">
         <v>151.30000000000001</v>
       </c>
       <c r="I25">
-        <v>1115.4999999999998</v>
+        <v>1115.5</v>
       </c>
       <c r="K25">
         <v>356.20000000000005</v>
       </c>
       <c r="L25">
-        <v>297.69999999999993</v>
+        <v>297.70000000000005</v>
       </c>
       <c r="N25">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="O25">
-        <v>0.79999999999999716</v>
+        <v>0.80000000000000249</v>
       </c>
       <c r="P25">
         <v>55.4</v>
       </c>
       <c r="Q25">
-        <v>720.39999999999986</v>
+        <v>720.4</v>
       </c>
       <c r="S25">
-        <v>220.40000000000003</v>
+        <v>220.4</v>
       </c>
       <c r="T25">
         <v>247.4</v>
@@ -3636,7 +3627,7 @@
         <v>22.4</v>
       </c>
       <c r="W25">
-        <v>490.20000000000005</v>
+        <v>490.2</v>
       </c>
       <c r="X25">
         <v>36.200000000000003</v>
@@ -3650,9 +3641,6 @@
       <c r="AA25">
         <v>166.048</v>
       </c>
-      <c r="AB25">
-        <v>1.1368683772161603E-13</v>
-      </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
@@ -3674,10 +3662,10 @@
         <v>285.7</v>
       </c>
       <c r="N26">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="O26">
-        <v>0.79999999999999716</v>
+        <v>0.80000000000000249</v>
       </c>
       <c r="P26">
         <v>55.4</v>
@@ -3704,7 +3692,7 @@
         <v>166.048</v>
       </c>
       <c r="AB26">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3715,19 +3703,19 @@
         <v>80</v>
       </c>
       <c r="F27">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I27">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="N27">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="O27">
-        <v>0.79999999999999716</v>
+        <v>0.80000000000000249</v>
       </c>
       <c r="Q27">
-        <v>11.099999999999998</v>
+        <v>11.1</v>
       </c>
       <c r="V27">
         <v>22.4</v>
@@ -3748,7 +3736,7 @@
         <v>166.048</v>
       </c>
       <c r="AB27">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3759,19 +3747,19 @@
         <v>81</v>
       </c>
       <c r="F28">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I28">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="N28">
-        <v>10.3</v>
+        <v>10.299999999999997</v>
       </c>
       <c r="O28">
-        <v>0.79999999999999716</v>
+        <v>0.80000000000000249</v>
       </c>
       <c r="Q28">
-        <v>11.099999999999998</v>
+        <v>11.1</v>
       </c>
       <c r="V28">
         <v>22.4</v>
@@ -3792,7 +3780,7 @@
         <v>166.048</v>
       </c>
       <c r="AB28">
-        <v>469.58582570493013</v>
+        <v>477.55481562176624</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3803,10 +3791,10 @@
         <v>70</v>
       </c>
       <c r="F29">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I29">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="J29">
         <v>719.60000000000014</v>
@@ -3833,7 +3821,7 @@
         <v>166.048</v>
       </c>
       <c r="AB29">
-        <v>307.70000000000005</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3844,10 +3832,10 @@
         <v>71</v>
       </c>
       <c r="F30">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I30">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="J30">
         <v>719.60000000000014</v>
@@ -3874,7 +3862,7 @@
         <v>166.048</v>
       </c>
       <c r="AB30">
-        <v>307.70000000000005</v>
+        <v>459</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3885,10 +3873,10 @@
         <v>72</v>
       </c>
       <c r="F31">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I31">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="J31">
         <v>719.60000000000014</v>
@@ -3915,7 +3903,7 @@
         <v>166.048</v>
       </c>
       <c r="AB31">
-        <v>307.70000000000005</v>
+        <v>459</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -3926,10 +3914,10 @@
         <v>73</v>
       </c>
       <c r="F32">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I32">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="J32">
         <v>719.60000000000014</v>
@@ -3956,7 +3944,7 @@
         <v>166.048</v>
       </c>
       <c r="AB32">
-        <v>307.70000000000005</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -4132,7 +4120,7 @@
         <v>653.90000000000009</v>
       </c>
       <c r="O36">
-        <v>0.79999999999999705</v>
+        <v>0.79999999999999882</v>
       </c>
       <c r="P36">
         <v>55.4</v>
@@ -4188,7 +4176,7 @@
         <v>653.90000000000009</v>
       </c>
       <c r="O37">
-        <v>0.79999999999999705</v>
+        <v>0.79999999999999882</v>
       </c>
       <c r="P37">
         <v>55.4</v>
@@ -4244,7 +4232,7 @@
         <v>653.90000000000009</v>
       </c>
       <c r="O38">
-        <v>0.79999999999999705</v>
+        <v>0.79999999999999882</v>
       </c>
       <c r="P38">
         <v>55.4</v>
@@ -4285,16 +4273,16 @@
         <v>80</v>
       </c>
       <c r="F39">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I39">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="J39">
         <v>719.60000000000014</v>
       </c>
       <c r="O39">
-        <v>0.79999999999999705</v>
+        <v>0.79999999999999882</v>
       </c>
       <c r="Q39">
         <v>720.40000000000009</v>
@@ -4321,7 +4309,7 @@
         <v>166.048</v>
       </c>
       <c r="AB39">
-        <v>285.30000000000007</v>
+        <v>436.6</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.55000000000000004">
@@ -4332,16 +4320,16 @@
         <v>81</v>
       </c>
       <c r="F40">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="I40">
-        <v>830.19999999999993</v>
+        <v>678.9</v>
       </c>
       <c r="J40">
         <v>719.60000000000014</v>
       </c>
       <c r="O40">
-        <v>0.79999999999999705</v>
+        <v>0.79999999999999882</v>
       </c>
       <c r="Q40">
         <v>720.40000000000009</v>
@@ -4368,7 +4356,7 @@
         <v>166.048</v>
       </c>
       <c r="AB40">
-        <v>285.30000000000007</v>
+        <v>436.6</v>
       </c>
     </row>
   </sheetData>
@@ -4491,25 +4479,25 @@
         <v>0.33112199999999942</v>
       </c>
       <c r="D2">
-        <v>2.7396599999999948E-2</v>
+        <v>2.2403699999999954E-2</v>
       </c>
       <c r="K2">
         <v>0.49587599999999904</v>
       </c>
       <c r="L2">
-        <v>0.58350999999999875</v>
+        <v>0.58350999999999897</v>
       </c>
       <c r="M2">
-        <v>5.9960999999999876E-2</v>
+        <v>5.9960999999999889E-2</v>
       </c>
       <c r="N2">
         <v>1.664299999999997E-2</v>
       </c>
       <c r="Q2">
-        <v>5.7680000000000036E-4</v>
+        <v>5.7679999999999787E-4</v>
       </c>
       <c r="S2">
-        <v>0.76542489589903462</v>
+        <v>0.77841434946347743</v>
       </c>
       <c r="T2">
         <v>9.665399999999981E-2</v>
@@ -4527,22 +4515,22 @@
         <v>6.0939999999999883E-3</v>
       </c>
       <c r="Z2">
-        <v>0.16539738962728717</v>
+        <v>0.15965467975106645</v>
       </c>
       <c r="AA2">
-        <v>1.6325215213097259E-2</v>
+        <v>1.5758392635988012E-2</v>
       </c>
       <c r="AB2">
-        <v>4.27767878438745E-3</v>
+        <v>4.1291548671856231E-3</v>
       </c>
       <c r="AC2">
-        <v>3.0705906137689688E-2</v>
+        <v>2.9639776189492935E-2</v>
       </c>
       <c r="AF2">
-        <v>5.6853543385079232E-3</v>
+        <v>5.2129870927936387E-3</v>
       </c>
       <c r="AG2">
-        <v>2.9600000000000009</v>
+        <v>2.9600000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -4556,13 +4544,13 @@
         <v>3.9184199999999919E-2</v>
       </c>
       <c r="D3">
-        <v>2.7396599999999945E-2</v>
+        <v>2.2403699999999954E-2</v>
       </c>
       <c r="O3">
         <v>6.2815199999999863E-2</v>
       </c>
       <c r="S3">
-        <v>0.50155099999999908</v>
+        <v>0.74816999999999845</v>
       </c>
       <c r="T3">
         <v>9.665399999999981E-2</v>
@@ -4574,28 +4562,28 @@
         <v>0.25297715999999953</v>
       </c>
       <c r="W3">
-        <v>7.655999999999984E-3</v>
+        <v>7.6559999999999849E-3</v>
       </c>
       <c r="X3">
         <v>6.0939999999999883E-3</v>
       </c>
       <c r="Z3">
-        <v>0.23806216109114983</v>
+        <v>0.2323194512149292</v>
       </c>
       <c r="AA3">
-        <v>2.3497444685589348E-2</v>
+        <v>2.2930622108480108E-2</v>
       </c>
       <c r="AB3">
-        <v>6.1570104471408852E-3</v>
+        <v>6.0084865299390609E-3</v>
       </c>
       <c r="AC3">
-        <v>4.4196068570809065E-2</v>
+        <v>4.3129938622612315E-2</v>
       </c>
       <c r="AF3">
-        <v>1.0300167647079342E-2</v>
+        <v>9.8278004013650569E-3</v>
       </c>
       <c r="AG3">
-        <v>1.9239360124417653</v>
+        <v>2.1575655588773217</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.55000000000000004">
@@ -4739,25 +4727,25 @@
         <v>1.3749999999999974E-2</v>
       </c>
       <c r="C7">
-        <v>0.35851859999999935</v>
+        <v>0.35352569999999939</v>
       </c>
       <c r="D7">
-        <v>1.1559899999999976</v>
+        <v>1.1559899999999979</v>
       </c>
       <c r="E7">
-        <v>5.7680000000000036E-4</v>
+        <v>5.7679999999999787E-4</v>
       </c>
       <c r="F7">
-        <v>0.76542489589903462</v>
+        <v>0.77841434946347743</v>
       </c>
       <c r="G7">
         <v>0.44334815999999916</v>
       </c>
       <c r="I7">
-        <v>1.6325215213097259E-2</v>
+        <v>1.5758392635988012E-2</v>
       </c>
       <c r="J7">
-        <v>0.20606632888787224</v>
+        <v>0.19863659790053864</v>
       </c>
       <c r="K7">
         <v>2.9600000000000004</v>
@@ -4768,28 +4756,28 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>1.3749999999999972E-2</v>
+        <v>1.3749999999999974E-2</v>
       </c>
       <c r="C8">
-        <v>0.58025879999999885</v>
+        <v>0.57526589999999878</v>
       </c>
       <c r="E8">
         <v>6.2815199999999863E-2</v>
       </c>
       <c r="F8">
-        <v>0.50155099999999908</v>
+        <v>0.74816999999999845</v>
       </c>
       <c r="G8">
         <v>0.44334815999999916</v>
       </c>
       <c r="I8">
-        <v>2.3497444685589348E-2</v>
+        <v>2.2930622108480108E-2</v>
       </c>
       <c r="J8">
-        <v>0.29871540775617916</v>
+        <v>0.29128567676884565</v>
       </c>
       <c r="K8">
-        <v>1.9239360124417653</v>
+        <v>2.1575655588773222</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.55000000000000004">
